--- a/templates/PL-B-Lamp_2.xlsx
+++ b/templates/PL-B-Lamp_2.xlsx
@@ -40,9 +40,6 @@
     <t xml:space="preserve">               PENGADAAN BARANG ..................................................................</t>
   </si>
   <si>
-    <t>PT PLN (PERSERO) .....................</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">               RKS PENUNJUKAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
 </sst>
 </file>
@@ -592,30 +592,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -687,6 +663,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1089,7 +1089,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6" spans="2:8" ht="15">
       <c r="B6" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="9" spans="2:8" ht="15">
       <c r="B9" s="63" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -1198,78 +1198,78 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" ht="14.25" thickTop="1" thickBot="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="G13" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="24">
+        <v>3</v>
+      </c>
+      <c r="E15" s="24">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24">
+        <v>5</v>
+      </c>
+      <c r="G15" s="24">
         <v>6</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
-        <v>2</v>
-      </c>
-      <c r="D15" s="32">
-        <v>3</v>
-      </c>
-      <c r="E15" s="32">
-        <v>4</v>
-      </c>
-      <c r="F15" s="32">
-        <v>5</v>
-      </c>
-      <c r="G15" s="32">
-        <v>6</v>
-      </c>
-      <c r="H15" s="54">
+      <c r="H15" s="46">
         <v>7</v>
       </c>
     </row>
@@ -1644,40 +1644,40 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="58"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="59"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="59"/>
+      <c r="G59" s="51"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1687,72 +1687,72 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="2:8" ht="13.5" thickTop="1">
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="57" t="s">
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="57" t="s">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="47"/>
+      <c r="C66" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="55"/>
-      <c r="C66" s="57" t="s">
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="45" t="s">
         <v>24</v>
-      </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="53" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1914,16 +1914,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:7">
-      <c r="G2" s="25"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="3:7" ht="15">
       <c r="C3" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="4" spans="3:7" ht="15">
       <c r="C4" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="5" spans="3:7" ht="15">
       <c r="C5" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="6" spans="3:7" ht="15">
       <c r="C6" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="7" spans="3:7" ht="15">
       <c r="C7" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -1974,563 +1974,563 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="3:7" ht="15">
+      <c r="C10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="3:7" ht="15">
-      <c r="C10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52" t="s">
+      <c r="G11" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="45" t="s">
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="37"/>
+      <c r="D13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="45"/>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="37"/>
+      <c r="D14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="37"/>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C16" s="37"/>
+      <c r="D16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C17" s="37"/>
+      <c r="D17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="45"/>
-      <c r="D14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="45"/>
-      <c r="D15" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C16" s="45"/>
-      <c r="D16" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C17" s="45"/>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="45" t="s">
+      <c r="D18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="37"/>
+      <c r="D19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="45"/>
-      <c r="D19" s="27" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="37"/>
+      <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="45"/>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="37"/>
+      <c r="D21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="37"/>
+      <c r="D22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="37"/>
+      <c r="D23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="37"/>
+      <c r="D24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="37"/>
+      <c r="D25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="45"/>
-      <c r="D21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="45"/>
-      <c r="D22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="45"/>
-      <c r="D23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="45"/>
-      <c r="D24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="45"/>
-      <c r="D25" s="27" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="37"/>
+      <c r="D26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="37"/>
+      <c r="D27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="37"/>
+      <c r="D28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="37"/>
+      <c r="D29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C30" s="37"/>
+      <c r="D30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C31" s="37"/>
+      <c r="D31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="45"/>
-      <c r="D26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="45"/>
-      <c r="D27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="45"/>
-      <c r="D28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="45"/>
-      <c r="D29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C30" s="45"/>
-      <c r="D30" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C31" s="45"/>
-      <c r="D31" s="42" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="45" t="s">
+      <c r="D32" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="37"/>
+      <c r="D33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="45"/>
-      <c r="D33" s="27" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C34" s="37"/>
+      <c r="D34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C34" s="45"/>
-      <c r="D34" s="27" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C35" s="37"/>
+      <c r="D35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C35" s="45"/>
-      <c r="D35" s="42" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="37"/>
+      <c r="D37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="45"/>
-      <c r="D37" s="27" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C38" s="37"/>
+      <c r="D38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C38" s="45"/>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C39" s="37"/>
+      <c r="D39" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C39" s="45"/>
-      <c r="D39" s="42" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="37"/>
+      <c r="D41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="45"/>
-      <c r="D41" s="27" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="37"/>
+      <c r="D42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C43" s="37"/>
+      <c r="D43" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C44" s="37"/>
+      <c r="D44" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="45"/>
-      <c r="D42" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C43" s="45"/>
-      <c r="D43" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C44" s="45"/>
-      <c r="D44" s="42" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="45" t="s">
+      <c r="D45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="37"/>
+      <c r="D46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="37"/>
+      <c r="D47" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C48" s="37"/>
+      <c r="D48" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C49" s="37"/>
+      <c r="D49" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="45"/>
-      <c r="D46" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="45"/>
-      <c r="D47" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C48" s="45"/>
-      <c r="D48" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C49" s="45"/>
-      <c r="D49" s="42" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="45" t="s">
+      <c r="D50" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="37"/>
+      <c r="D51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="45"/>
-      <c r="D51" s="27" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="37"/>
+      <c r="D52" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" s="45"/>
-      <c r="D52" s="27" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C53" s="37"/>
+      <c r="D53" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C53" s="45"/>
-      <c r="D53" s="27" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C54" s="37"/>
+      <c r="D54" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C54" s="45"/>
-      <c r="D54" s="42" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" s="45" t="s">
+      <c r="D55" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="E55" s="19"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="18"/>
+      <c r="D56" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C57" s="18"/>
+      <c r="D57" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="3:7" ht="13.5" thickBot="1">
+      <c r="C58" s="18"/>
+      <c r="D58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="26"/>
-      <c r="D56" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C57" s="26"/>
-      <c r="D57" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C58" s="26"/>
-      <c r="D58" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="27"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="27"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="3:7">
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="27"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="27"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="3:7" ht="13.5" thickBot="1">
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="43" t="s">
-        <v>68</v>
+      <c r="C64" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="27"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" thickBot="1">
+      <c r="C66" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" thickBot="1">
-      <c r="C66" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="30"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" thickTop="1">
-      <c r="C67" s="39"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="14.25">
-      <c r="A68" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="40"/>
+      <c r="A68" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="32"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="53"/>
-      <c r="C69" s="40"/>
+      <c r="A69" s="45"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>

--- a/templates/PL-B-Lamp_2.xlsx
+++ b/templates/PL-B-Lamp_2.xlsx
@@ -1068,9 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1901,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>

--- a/templates/PL-B-Lamp_2.xlsx
+++ b/templates/PL-B-Lamp_2.xlsx
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/templates/PL-B-Lamp_2.xlsx
+++ b/templates/PL-B-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -37,9 +37,6 @@
     <t>DAFTAR RINCIAN, JUMLAH DAN HARGA BARANG</t>
   </si>
   <si>
-    <t xml:space="preserve">               PENGADAAN BARANG ..................................................................</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -244,12 +241,6 @@
     <t>Sheet2</t>
   </si>
   <si>
-    <t>TANGGAL : .....................................</t>
-  </si>
-  <si>
-    <t>NOMOR     : .....................................</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -260,6 +251,15 @@
   </si>
   <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
+  </si>
+  <si>
+    <t>NOMOR     : #nomor#</t>
+  </si>
+  <si>
+    <t>TANGGAL : #tanggal#</t>
+  </si>
+  <si>
+    <t>#namapengadaan#</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1119,12 +1121,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="63" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -1135,7 +1137,7 @@
     </row>
     <row r="6" spans="2:8" ht="15">
       <c r="B6" s="63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="8" spans="2:8" ht="15">
       <c r="B8" s="63" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -1168,7 +1170,7 @@
     </row>
     <row r="9" spans="2:8" ht="15">
       <c r="B9" s="63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -1199,53 +1201,53 @@
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="D13" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E13" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="57" t="s">
+      <c r="G13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="H13" s="58" t="s">
         <v>10</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="13.5" thickBot="1">
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1">
@@ -1642,7 +1644,7 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1653,7 +1655,7 @@
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -1664,7 +1666,7 @@
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -1675,7 +1677,7 @@
     </row>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
       <c r="B60" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1695,7 +1697,7 @@
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="49"/>
@@ -1706,7 +1708,7 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
@@ -1717,7 +1719,7 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
@@ -1740,7 +1742,7 @@
     <row r="66" spans="1:8">
       <c r="B66" s="47"/>
       <c r="C66" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="48"/>
       <c r="E66" s="48"/>
@@ -1750,7 +1752,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1923,7 @@
     </row>
     <row r="3" spans="3:7" ht="15">
       <c r="C3" s="63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -1930,7 +1932,7 @@
     </row>
     <row r="4" spans="3:7" ht="15">
       <c r="C4" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1939,7 +1941,7 @@
     </row>
     <row r="5" spans="3:7" ht="15">
       <c r="C5" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -1948,7 +1950,7 @@
     </row>
     <row r="6" spans="3:7" ht="15">
       <c r="C6" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="7" spans="3:7" ht="15">
       <c r="C7" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -1976,25 +1978,25 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="3:7" ht="15">
       <c r="C10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" s="41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1">
@@ -2002,18 +2004,18 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
@@ -2022,7 +2024,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="37"/>
       <c r="D13" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
@@ -2031,7 +2033,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="37"/>
       <c r="D14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
@@ -2040,7 +2042,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="37"/>
       <c r="D15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
@@ -2049,7 +2051,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="37"/>
       <c r="D16" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
@@ -2058,7 +2060,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="37"/>
       <c r="D17" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -2066,10 +2068,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
@@ -2078,7 +2080,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="37"/>
       <c r="D19" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
@@ -2087,7 +2089,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="37"/>
       <c r="D20" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="4"/>
@@ -2096,7 +2098,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="37"/>
       <c r="D21" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="4"/>
@@ -2105,7 +2107,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="37"/>
       <c r="D22" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
@@ -2114,7 +2116,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="37"/>
       <c r="D23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="4"/>
@@ -2123,7 +2125,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="37"/>
       <c r="D24" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="4"/>
@@ -2132,7 +2134,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="37"/>
       <c r="D25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="4"/>
@@ -2141,7 +2143,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="37"/>
       <c r="D26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="4"/>
@@ -2150,7 +2152,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="37"/>
       <c r="D27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="4"/>
@@ -2159,7 +2161,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="37"/>
       <c r="D28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="4"/>
@@ -2168,7 +2170,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="37"/>
       <c r="D29" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="4"/>
@@ -2177,7 +2179,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="37"/>
       <c r="D30" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="4"/>
@@ -2186,7 +2188,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -2194,10 +2196,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>41</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="4"/>
@@ -2206,7 +2208,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="37"/>
       <c r="D33" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="4"/>
@@ -2215,7 +2217,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="37"/>
       <c r="D34" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="4"/>
@@ -2224,7 +2226,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="37"/>
       <c r="D35" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2232,10 +2234,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="4"/>
@@ -2244,7 +2246,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="37"/>
       <c r="D37" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
@@ -2253,7 +2255,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="37"/>
       <c r="D38" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
@@ -2262,7 +2264,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="37"/>
       <c r="D39" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -2270,10 +2272,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>52</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="4"/>
@@ -2282,7 +2284,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="37"/>
       <c r="D41" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="4"/>
@@ -2291,7 +2293,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="37"/>
       <c r="D42" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="4"/>
@@ -2300,7 +2302,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="37"/>
       <c r="D43" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="4"/>
@@ -2309,7 +2311,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="37"/>
       <c r="D44" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
@@ -2317,10 +2319,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="4"/>
@@ -2329,7 +2331,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="37"/>
       <c r="D46" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="4"/>
@@ -2338,7 +2340,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="37"/>
       <c r="D47" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="4"/>
@@ -2347,7 +2349,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="37"/>
       <c r="D48" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="4"/>
@@ -2356,7 +2358,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="37"/>
       <c r="D49" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -2364,10 +2366,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="4"/>
@@ -2376,7 +2378,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="37"/>
       <c r="D51" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="4"/>
@@ -2385,7 +2387,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="37"/>
       <c r="D52" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="4"/>
@@ -2394,7 +2396,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="37"/>
       <c r="D53" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="4"/>
@@ -2403,7 +2405,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="37"/>
       <c r="D54" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
@@ -2411,10 +2413,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="4"/>
@@ -2423,7 +2425,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="18"/>
       <c r="D56" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="4"/>
@@ -2432,7 +2434,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="18"/>
       <c r="D57" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="4"/>
@@ -2441,7 +2443,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="18"/>
       <c r="D58" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
@@ -2484,7 +2486,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2493,7 +2495,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -2502,7 +2504,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -2518,7 +2520,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="5"/>

--- a/templates/PL-B-Lamp_2.xlsx
+++ b/templates/PL-B-Lamp_2.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="BoQ" sheetId="1" r:id="rId1"/>
+    <sheet name="BoQ Konsultan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>Lampiran : 2.</t>
   </si>
@@ -37,9 +23,6 @@
     <t>DAFTAR RINCIAN, JUMLAH DAN HARGA BARANG</t>
   </si>
   <si>
-    <t>NOMOR</t>
-  </si>
-  <si>
     <t>H A R G A</t>
   </si>
   <si>
@@ -52,42 +35,18 @@
     <t>U R A I A N</t>
   </si>
   <si>
-    <t>PART/</t>
-  </si>
-  <si>
-    <t>LOKO SITE</t>
-  </si>
-  <si>
-    <t>IMPORT</t>
-  </si>
-  <si>
     <t>HARGA</t>
   </si>
   <si>
-    <t>IDENTIFIKASI</t>
-  </si>
-  <si>
-    <t>LOKAL</t>
-  </si>
-  <si>
     <t>(Rp)</t>
   </si>
   <si>
-    <t>SUB TOTAL</t>
-  </si>
-  <si>
     <t>PPN 10%</t>
   </si>
   <si>
     <t>T O T A L</t>
   </si>
   <si>
-    <t>TERBILANG :</t>
-  </si>
-  <si>
-    <t>Catatan : 1. Tempat Penyerahan.</t>
-  </si>
-  <si>
     <t xml:space="preserve">                2. Analisa harga satuan terlampir sebanyak .... halaman.</t>
   </si>
   <si>
@@ -260,12 +219,45 @@
   </si>
   <si>
     <t>#namapengadaan#</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>6=4X5</t>
+  </si>
+  <si>
+    <t>TERBILANG : (dengan huruf)</t>
+  </si>
+  <si>
+    <t>Jakarta …………… #tahun#</t>
+  </si>
+  <si>
+    <t>PT/CV……………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materai Rp. 6.000,- dan </t>
+  </si>
+  <si>
+    <t>Cap Perusahaan</t>
+  </si>
+  <si>
+    <t>Nama Jelas</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Terbilang (dengan huruf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -346,7 +338,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -474,19 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -566,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -599,8 +578,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,7 +594,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -623,7 +602,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -633,11 +612,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,20 +639,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +660,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,7 +828,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -889,7 +862,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1065,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1078,179 +1050,159 @@
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15">
+    <row r="1" spans="2:7" ht="15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:7">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="61" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-    </row>
-    <row r="6" spans="2:8" ht="15">
-      <c r="B6" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="2:8" ht="15">
-      <c r="B8" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15">
+      <c r="B5" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7" ht="15">
+      <c r="B6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7" ht="15">
+      <c r="B7" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:7" ht="15">
+      <c r="B8" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7" ht="15">
+      <c r="B9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.5" thickBot="1">
+    </row>
+    <row r="11" spans="2:7" ht="13.5" thickBot="1">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="14.25" thickTop="1" thickBot="1">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="13.5" thickTop="1">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="57" t="s">
+      <c r="C13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="D13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="57" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="13.5" thickBot="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G14" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.5" thickBot="1">
       <c r="B15" s="24">
         <v>1</v>
       </c>
@@ -1266,503 +1218,523 @@
       <c r="F15" s="24">
         <v>5</v>
       </c>
-      <c r="G15" s="24">
-        <v>6</v>
-      </c>
-      <c r="H15" s="46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="G15" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="2:7" ht="13.5" thickBot="1">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" ht="13.5" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" ht="13.5" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="2:7" ht="13.5" thickBot="1">
       <c r="B60" s="12" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="2:8" ht="13.5" thickTop="1">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7" ht="13.5" thickTop="1">
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
       <c r="E61" s="48"/>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="48"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="48"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="B66" s="47"/>
-      <c r="C66" s="49" t="s">
-        <v>22</v>
-      </c>
+      <c r="C66" s="48"/>
       <c r="D66" s="48"/>
       <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="F66" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="45" t="s">
-        <v>23</v>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="48"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="49"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="B73" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="47"/>
+      <c r="C74" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="45" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1771,138 +1743,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1922,49 +1768,49 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="3:7" ht="15">
-      <c r="C3" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="C3" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="3:7" ht="15">
-      <c r="C4" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="3:7" ht="15">
-      <c r="C5" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="3:7" ht="15">
-      <c r="C6" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="3:7" ht="15">
-      <c r="C7" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="3:7" ht="13.5" thickBot="1">
       <c r="C8" s="4"/>
@@ -1978,25 +1824,25 @@
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="3:7" ht="15">
       <c r="C10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1">
@@ -2004,18 +1850,18 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="44" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="37" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
@@ -2024,7 +1870,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="37"/>
       <c r="D13" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
@@ -2033,7 +1879,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="37"/>
       <c r="D14" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
@@ -2042,7 +1888,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="37"/>
       <c r="D15" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
@@ -2051,7 +1897,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="37"/>
       <c r="D16" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
@@ -2060,7 +1906,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="37"/>
       <c r="D17" s="34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -2068,10 +1914,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="37" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
@@ -2080,7 +1926,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="37"/>
       <c r="D19" s="19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
@@ -2089,7 +1935,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="37"/>
       <c r="D20" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="4"/>
@@ -2098,7 +1944,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="37"/>
       <c r="D21" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="4"/>
@@ -2107,7 +1953,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="37"/>
       <c r="D22" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
@@ -2116,7 +1962,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="37"/>
       <c r="D23" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="4"/>
@@ -2125,7 +1971,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="37"/>
       <c r="D24" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="4"/>
@@ -2134,7 +1980,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="37"/>
       <c r="D25" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="4"/>
@@ -2143,7 +1989,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="37"/>
       <c r="D26" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="4"/>
@@ -2152,7 +1998,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="37"/>
       <c r="D27" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="4"/>
@@ -2161,7 +2007,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="37"/>
       <c r="D28" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="4"/>
@@ -2170,7 +2016,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="37"/>
       <c r="D29" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="4"/>
@@ -2179,7 +2025,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="37"/>
       <c r="D30" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="4"/>
@@ -2188,7 +2034,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -2196,10 +2042,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="4"/>
@@ -2208,7 +2054,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="37"/>
       <c r="D33" s="19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="4"/>
@@ -2217,7 +2063,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="37"/>
       <c r="D34" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="4"/>
@@ -2226,7 +2072,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="37"/>
       <c r="D35" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -2234,10 +2080,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="37" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="4"/>
@@ -2246,7 +2092,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="37"/>
       <c r="D37" s="19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
@@ -2255,7 +2101,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="37"/>
       <c r="D38" s="19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
@@ -2264,7 +2110,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="37"/>
       <c r="D39" s="34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -2272,10 +2118,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="37" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="4"/>
@@ -2284,7 +2130,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="37"/>
       <c r="D41" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="4"/>
@@ -2293,7 +2139,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="37"/>
       <c r="D42" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="4"/>
@@ -2302,7 +2148,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="37"/>
       <c r="D43" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="4"/>
@@ -2311,7 +2157,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="37"/>
       <c r="D44" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
@@ -2319,10 +2165,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="37" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="4"/>
@@ -2331,7 +2177,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="37"/>
       <c r="D46" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="4"/>
@@ -2340,7 +2186,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="37"/>
       <c r="D47" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="4"/>
@@ -2349,7 +2195,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="37"/>
       <c r="D48" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="4"/>
@@ -2358,7 +2204,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="37"/>
       <c r="D49" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -2366,10 +2212,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="4"/>
@@ -2378,7 +2224,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="37"/>
       <c r="D51" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="4"/>
@@ -2387,7 +2233,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="37"/>
       <c r="D52" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="4"/>
@@ -2396,7 +2242,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="37"/>
       <c r="D53" s="19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="4"/>
@@ -2405,7 +2251,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="37"/>
       <c r="D54" s="34" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
@@ -2413,10 +2259,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="4"/>
@@ -2425,7 +2271,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="18"/>
       <c r="D56" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="4"/>
@@ -2434,7 +2280,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="18"/>
       <c r="D57" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="4"/>
@@ -2443,7 +2289,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="18"/>
       <c r="D58" s="34" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
@@ -2486,7 +2332,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="35" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2495,7 +2341,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -2504,7 +2350,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -2512,7 +2358,9 @@
       <c r="G66" s="30"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" thickTop="1">
-      <c r="C67" s="31"/>
+      <c r="C67" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2520,7 +2368,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="5"/>
@@ -2532,9 +2380,61 @@
       <c r="A69" s="45"/>
       <c r="C69" s="32"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="E71" s="48"/>
+      <c r="F71" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="48"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="E73" s="48"/>
+      <c r="F73" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="48"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="E74" s="48"/>
+      <c r="F74" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="E76" s="48"/>
+      <c r="F76" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="48"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="E77" s="49"/>
+      <c r="F77" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2549,130 +2449,4 @@
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>